--- a/Code/Results/Cases/Case_9_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.86541234261585</v>
+        <v>12.56878100553389</v>
       </c>
       <c r="C2">
-        <v>7.771191339070256</v>
+        <v>7.61661682987423</v>
       </c>
       <c r="D2">
-        <v>5.627372387977745</v>
+        <v>5.517994216575</v>
       </c>
       <c r="E2">
-        <v>7.670422807954528</v>
+        <v>7.362276292241743</v>
       </c>
       <c r="F2">
-        <v>30.19210923257636</v>
+        <v>27.03711395339453</v>
       </c>
       <c r="G2">
-        <v>43.88246413467413</v>
+        <v>38.20116239154109</v>
       </c>
       <c r="H2">
-        <v>3.69579223566151</v>
+        <v>3.447892904909233</v>
       </c>
       <c r="I2">
-        <v>4.454762465841464</v>
+        <v>4.146929992730042</v>
       </c>
       <c r="J2">
-        <v>13.93089871927452</v>
+        <v>12.79863172378167</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>16.59747305533725</v>
       </c>
       <c r="M2">
-        <v>10.53677506256283</v>
+        <v>15.23662269739335</v>
       </c>
       <c r="N2">
-        <v>5.942159070857203</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.593436185258874</v>
+        <v>10.8687050796722</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.235385197430023</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.519803933401349</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.06730907236736</v>
+        <v>11.75404703879233</v>
       </c>
       <c r="C3">
-        <v>7.539060399141068</v>
+        <v>7.287114414544633</v>
       </c>
       <c r="D3">
-        <v>5.581208566457747</v>
+        <v>5.440882321552261</v>
       </c>
       <c r="E3">
-        <v>7.439819302528945</v>
+        <v>7.184179266180628</v>
       </c>
       <c r="F3">
-        <v>29.32496268134943</v>
+        <v>26.46323058814697</v>
       </c>
       <c r="G3">
-        <v>42.52938034136097</v>
+        <v>37.43320068774379</v>
       </c>
       <c r="H3">
-        <v>3.923185478021853</v>
+        <v>3.652418377264912</v>
       </c>
       <c r="I3">
-        <v>4.657443234206504</v>
+        <v>4.321672539653926</v>
       </c>
       <c r="J3">
-        <v>13.73608264031826</v>
+        <v>12.66692218695606</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>16.56801714985493</v>
       </c>
       <c r="M3">
-        <v>9.935715293397298</v>
+        <v>15.02525441054057</v>
       </c>
       <c r="N3">
-        <v>5.75194954562523</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.211906820891134</v>
+        <v>10.24747809813233</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.04984117553674</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.137636014676479</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.55029588836186</v>
+        <v>11.2225657681838</v>
       </c>
       <c r="C4">
-        <v>7.392633620476118</v>
+        <v>7.079874502119857</v>
       </c>
       <c r="D4">
-        <v>5.551202379257328</v>
+        <v>5.392381576932392</v>
       </c>
       <c r="E4">
-        <v>7.292517996054558</v>
+        <v>7.070392479711408</v>
       </c>
       <c r="F4">
-        <v>28.7810992514757</v>
+        <v>26.10472612231776</v>
       </c>
       <c r="G4">
-        <v>41.6752535155232</v>
+        <v>36.9537793696465</v>
       </c>
       <c r="H4">
-        <v>4.067706238188213</v>
+        <v>3.782508238636462</v>
       </c>
       <c r="I4">
-        <v>4.786813902747665</v>
+        <v>4.433550228356205</v>
       </c>
       <c r="J4">
-        <v>13.61543231472251</v>
+        <v>12.58374465018268</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>16.54294058794667</v>
       </c>
       <c r="M4">
-        <v>9.548033071546531</v>
+        <v>14.90735323851749</v>
       </c>
       <c r="N4">
-        <v>5.631934329818159</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>8.970289485468838</v>
+        <v>9.846799785479064</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5.933176026309265</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.89523407452328</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.33031015356821</v>
+        <v>10.99566751097779</v>
       </c>
       <c r="C5">
-        <v>7.334120210490592</v>
+        <v>6.998855696724792</v>
       </c>
       <c r="D5">
-        <v>5.538590583452371</v>
+        <v>5.373106437509596</v>
       </c>
       <c r="E5">
-        <v>7.228199508697817</v>
+        <v>7.020626749013897</v>
       </c>
       <c r="F5">
-        <v>28.53563788231886</v>
+        <v>25.93930630868075</v>
       </c>
       <c r="G5">
-        <v>41.28388841796827</v>
+        <v>36.72503147688973</v>
       </c>
       <c r="H5">
-        <v>4.128326876026464</v>
+        <v>3.837089677728821</v>
       </c>
       <c r="I5">
-        <v>4.843210664676866</v>
+        <v>4.483067147845847</v>
       </c>
       <c r="J5">
-        <v>13.55863234868967</v>
+        <v>12.54306251923793</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>16.5189413188648</v>
       </c>
       <c r="M5">
-        <v>9.38732011660837</v>
+        <v>14.8533960975581</v>
       </c>
       <c r="N5">
-        <v>5.582833739086861</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.869788977659454</v>
+        <v>9.680443244986833</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>5.885464544034841</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.794354500322648</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.29020978450374</v>
+        <v>10.95454120680339</v>
       </c>
       <c r="C6">
-        <v>7.327025043023982</v>
+        <v>6.991039532448444</v>
       </c>
       <c r="D6">
-        <v>5.536530534461844</v>
+        <v>5.370854545680014</v>
       </c>
       <c r="E6">
-        <v>7.21392185361697</v>
+        <v>7.009500394903634</v>
       </c>
       <c r="F6">
-        <v>28.46877776533055</v>
+        <v>25.88986561851507</v>
       </c>
       <c r="G6">
-        <v>41.17230798416911</v>
+        <v>36.64840575930023</v>
       </c>
       <c r="H6">
-        <v>4.139047927711639</v>
+        <v>3.846732347357048</v>
       </c>
       <c r="I6">
-        <v>4.855725981302077</v>
+        <v>4.494883808328636</v>
       </c>
       <c r="J6">
-        <v>13.54013248367253</v>
+        <v>12.52866748339819</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>16.50018797688273</v>
       </c>
       <c r="M6">
-        <v>9.362697827172198</v>
+        <v>14.83360487944722</v>
       </c>
       <c r="N6">
-        <v>5.575346653007293</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>8.852629902754609</v>
+        <v>9.654617421845932</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>5.878090007129297</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.777175167720518</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.53887579159371</v>
+        <v>11.21230132912041</v>
       </c>
       <c r="C7">
-        <v>7.399113329045802</v>
+        <v>7.091008678630748</v>
       </c>
       <c r="D7">
-        <v>5.551242991884978</v>
+        <v>5.396492635960614</v>
       </c>
       <c r="E7">
-        <v>7.282173529697265</v>
+        <v>7.061979031835114</v>
       </c>
       <c r="F7">
-        <v>28.70764289683542</v>
+        <v>26.00977943810487</v>
       </c>
       <c r="G7">
-        <v>41.54496790262345</v>
+        <v>36.89175815686229</v>
       </c>
       <c r="H7">
-        <v>4.070077186125699</v>
+        <v>3.785250242722381</v>
       </c>
       <c r="I7">
-        <v>4.79572763551112</v>
+        <v>4.444232960667996</v>
       </c>
       <c r="J7">
-        <v>13.59008016055481</v>
+        <v>12.51049248211902</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>16.48521960947237</v>
       </c>
       <c r="M7">
-        <v>9.552165049927725</v>
+        <v>14.86199183452591</v>
       </c>
       <c r="N7">
-        <v>5.633205114235766</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>8.967938459049019</v>
+        <v>9.848838085879141</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>5.933567510286579</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.893180218861222</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.58538642048561</v>
+        <v>12.28674616802685</v>
       </c>
       <c r="C8">
-        <v>7.701459792764319</v>
+        <v>7.513868119271589</v>
       </c>
       <c r="D8">
-        <v>5.612321779875098</v>
+        <v>5.501612676027371</v>
       </c>
       <c r="E8">
-        <v>7.58006250120611</v>
+        <v>7.291751501347039</v>
       </c>
       <c r="F8">
-        <v>29.80622255435061</v>
+        <v>26.65762431219826</v>
       </c>
       <c r="G8">
-        <v>43.26198051295231</v>
+        <v>37.95311311971793</v>
       </c>
       <c r="H8">
-        <v>3.775158124803371</v>
+        <v>3.521176304336612</v>
       </c>
       <c r="I8">
-        <v>4.533997554018788</v>
+        <v>4.220210885883217</v>
       </c>
       <c r="J8">
-        <v>13.8321404261897</v>
+        <v>12.55850520038649</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>16.483878544424</v>
       </c>
       <c r="M8">
-        <v>10.34121730549339</v>
+        <v>15.07163448401186</v>
       </c>
       <c r="N8">
-        <v>5.879756801046227</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.462181279765128</v>
+        <v>10.6614359335181</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.172336592506451</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.389082731849765</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.43509303043162</v>
+        <v>14.15745195135487</v>
       </c>
       <c r="C9">
-        <v>8.251519241519146</v>
+        <v>8.287779170341791</v>
       </c>
       <c r="D9">
-        <v>5.718203764781771</v>
+        <v>5.686823665340697</v>
       </c>
       <c r="E9">
-        <v>8.134328965907276</v>
+        <v>7.720327366730357</v>
       </c>
       <c r="F9">
-        <v>31.97855025495027</v>
+        <v>28.09876877695766</v>
       </c>
       <c r="G9">
-        <v>46.63969133975965</v>
+        <v>39.97659892737052</v>
       </c>
       <c r="H9">
-        <v>3.232132903859167</v>
+        <v>3.033747280722717</v>
       </c>
       <c r="I9">
-        <v>4.045595756032634</v>
+        <v>3.798904934745202</v>
       </c>
       <c r="J9">
-        <v>14.33992588969451</v>
+        <v>12.85768678029779</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>16.55655114167655</v>
       </c>
       <c r="M9">
-        <v>11.72931946319886</v>
+        <v>15.68054096935545</v>
       </c>
       <c r="N9">
-        <v>6.332873359403577</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.37052560434113</v>
+        <v>12.0961031516543</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.616410647946307</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.29673185635047</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.70637630554067</v>
+        <v>15.37662249455681</v>
       </c>
       <c r="C10">
-        <v>8.665326361122272</v>
+        <v>8.864533492777632</v>
       </c>
       <c r="D10">
-        <v>5.793749089482095</v>
+        <v>5.84902869577678</v>
       </c>
       <c r="E10">
-        <v>8.379927270636911</v>
+        <v>7.900747069314535</v>
       </c>
       <c r="F10">
-        <v>33.17797125827555</v>
+        <v>28.69721583607565</v>
       </c>
       <c r="G10">
-        <v>48.40960429347717</v>
+        <v>41.21322291476669</v>
       </c>
       <c r="H10">
-        <v>2.884464760247175</v>
+        <v>2.727219839831822</v>
       </c>
       <c r="I10">
-        <v>3.721614717754379</v>
+        <v>3.525267372550324</v>
       </c>
       <c r="J10">
-        <v>14.58594653940226</v>
+        <v>12.70111138582785</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>16.34723814776341</v>
       </c>
       <c r="M10">
-        <v>12.68398925550872</v>
+        <v>15.93942237843178</v>
       </c>
       <c r="N10">
-        <v>6.546982023350722</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>10.91876379523786</v>
+        <v>13.07064850336368</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>6.821055852276836</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.84397037356667</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.12614018373513</v>
+        <v>15.83679527847481</v>
       </c>
       <c r="C11">
-        <v>9.148925805534052</v>
+        <v>9.517648042157218</v>
       </c>
       <c r="D11">
-        <v>5.927346713042311</v>
+        <v>6.147463651880492</v>
       </c>
       <c r="E11">
-        <v>7.531364515663376</v>
+        <v>7.201767309411935</v>
       </c>
       <c r="F11">
-        <v>31.10955281750742</v>
+        <v>26.65578496962233</v>
       </c>
       <c r="G11">
-        <v>44.59771887616317</v>
+        <v>38.59617974698261</v>
       </c>
       <c r="H11">
-        <v>3.586429781016028</v>
+        <v>3.469776726182918</v>
       </c>
       <c r="I11">
-        <v>3.655830890529738</v>
+        <v>3.476128114302314</v>
       </c>
       <c r="J11">
-        <v>13.7379911980562</v>
+        <v>11.51806612824566</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.99335848876859</v>
       </c>
       <c r="M11">
-        <v>13.3153684827159</v>
+        <v>14.7351044415939</v>
       </c>
       <c r="N11">
-        <v>5.814635714985035</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.50529090295352</v>
+        <v>13.66292793515321</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.061605363411454</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.43696094814732</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.23358596146184</v>
+        <v>15.98655207275101</v>
       </c>
       <c r="C12">
-        <v>9.556753731877043</v>
+        <v>9.977341612408383</v>
       </c>
       <c r="D12">
-        <v>6.085717898911739</v>
+        <v>6.39507163024876</v>
       </c>
       <c r="E12">
-        <v>7.04767804788244</v>
+        <v>6.858606787445991</v>
       </c>
       <c r="F12">
-        <v>29.19425059616548</v>
+        <v>24.9852863148187</v>
       </c>
       <c r="G12">
-        <v>41.16435167104171</v>
+        <v>36.09380633444999</v>
       </c>
       <c r="H12">
-        <v>4.749348545713318</v>
+        <v>4.660935284016386</v>
       </c>
       <c r="I12">
-        <v>3.646101027819163</v>
+        <v>3.466974092598552</v>
       </c>
       <c r="J12">
-        <v>13.01373119383764</v>
+        <v>10.80332260136454</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.05515312998088</v>
       </c>
       <c r="M12">
-        <v>13.65351487422523</v>
+        <v>13.78330242577426</v>
       </c>
       <c r="N12">
-        <v>5.224078404883285</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>10.03786964689054</v>
+        <v>13.96606986410978</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.450348107847591</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.97478431597477</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.10052131020306</v>
+        <v>15.90095511855997</v>
       </c>
       <c r="C13">
-        <v>9.933968436460725</v>
+        <v>10.34930606394766</v>
       </c>
       <c r="D13">
-        <v>6.265944877757093</v>
+        <v>6.59819107029246</v>
       </c>
       <c r="E13">
-        <v>6.847069354700894</v>
+        <v>6.790908953528653</v>
       </c>
       <c r="F13">
-        <v>27.15415794440724</v>
+        <v>23.46112182854398</v>
       </c>
       <c r="G13">
-        <v>37.5933743321232</v>
+        <v>33.24643164752086</v>
       </c>
       <c r="H13">
-        <v>6.05492380723036</v>
+        <v>5.979867483161039</v>
       </c>
       <c r="I13">
-        <v>3.692562740748874</v>
+        <v>3.502950299866848</v>
       </c>
       <c r="J13">
-        <v>12.30360403831033</v>
+        <v>10.41865980778068</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.33390479725185</v>
       </c>
       <c r="M13">
-        <v>13.80343593811811</v>
+        <v>12.95672436445634</v>
       </c>
       <c r="N13">
-        <v>4.730818879189702</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.48989413946102</v>
+        <v>14.08255003709741</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>4.940662115983995</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.431109022412526</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.89489152870457</v>
+        <v>15.73178508295022</v>
       </c>
       <c r="C14">
-        <v>10.19782578270256</v>
+        <v>10.58220072582481</v>
       </c>
       <c r="D14">
-        <v>6.407385130740803</v>
+        <v>6.720747783194141</v>
       </c>
       <c r="E14">
-        <v>6.891441254379433</v>
+        <v>6.914340946367524</v>
       </c>
       <c r="F14">
-        <v>25.64576407366009</v>
+        <v>22.43485775187241</v>
       </c>
       <c r="G14">
-        <v>34.99568577987684</v>
+        <v>31.08269825572422</v>
       </c>
       <c r="H14">
-        <v>7.011674869483478</v>
+        <v>6.941298406828855</v>
       </c>
       <c r="I14">
-        <v>3.752626308511359</v>
+        <v>3.551393225446069</v>
       </c>
       <c r="J14">
-        <v>11.81235880291393</v>
+        <v>10.26705168234405</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.91389996998124</v>
       </c>
       <c r="M14">
-        <v>13.8274284457803</v>
+        <v>12.43566989767164</v>
       </c>
       <c r="N14">
-        <v>4.463329114887168</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>9.065499849335161</v>
+        <v>14.08282846662106</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>4.66325173706943</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.00912496083342</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.78958901806309</v>
+        <v>15.63703228365697</v>
       </c>
       <c r="C15">
-        <v>10.25189958600639</v>
+        <v>10.6238026494417</v>
       </c>
       <c r="D15">
-        <v>6.440859082083803</v>
+        <v>6.738231835369284</v>
       </c>
       <c r="E15">
-        <v>6.920722831514572</v>
+        <v>6.961426385861777</v>
       </c>
       <c r="F15">
-        <v>25.22989780305533</v>
+        <v>22.18992998709608</v>
       </c>
       <c r="G15">
-        <v>34.29540415236055</v>
+        <v>30.46548531934426</v>
       </c>
       <c r="H15">
-        <v>7.239584890336246</v>
+        <v>7.168926930833194</v>
       </c>
       <c r="I15">
-        <v>3.783971160202805</v>
+        <v>3.578126951591975</v>
       </c>
       <c r="J15">
-        <v>11.68804648012226</v>
+        <v>10.27233310270426</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.832493514</v>
       </c>
       <c r="M15">
-        <v>13.79442753471771</v>
+        <v>12.3215563841396</v>
       </c>
       <c r="N15">
-        <v>4.409340790447893</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.944559000078666</v>
+        <v>14.04409891343474</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.608036236049346</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.888552015103562</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.28346108382977</v>
+        <v>15.14274417613034</v>
       </c>
       <c r="C16">
-        <v>10.0203862295139</v>
+        <v>10.36374141136719</v>
       </c>
       <c r="D16">
-        <v>6.367500650213548</v>
+        <v>6.58070655727214</v>
       </c>
       <c r="E16">
-        <v>6.833918099291478</v>
+        <v>6.883586034925019</v>
       </c>
       <c r="F16">
-        <v>25.01654564287267</v>
+        <v>22.39547693493541</v>
       </c>
       <c r="G16">
-        <v>34.06311565532507</v>
+        <v>30.02200313809418</v>
       </c>
       <c r="H16">
-        <v>7.083989263083723</v>
+        <v>6.999720151696849</v>
       </c>
       <c r="I16">
-        <v>3.918054778465643</v>
+        <v>3.689530178862652</v>
       </c>
       <c r="J16">
-        <v>11.70558261259178</v>
+        <v>10.68957637051489</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.071872364598</v>
       </c>
       <c r="M16">
-        <v>13.38824216750995</v>
+        <v>12.48831554927482</v>
       </c>
       <c r="N16">
-        <v>4.401113512048221</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.799802603910658</v>
+        <v>13.64195478529373</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>4.613032210662674</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.74168639453552</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.00089914610381</v>
+        <v>14.84993836203866</v>
       </c>
       <c r="C17">
-        <v>9.688736340173747</v>
+        <v>10.02404146039251</v>
       </c>
       <c r="D17">
-        <v>6.231590626792256</v>
+        <v>6.403311705807892</v>
       </c>
       <c r="E17">
-        <v>6.709073414894985</v>
+        <v>6.725860521671458</v>
       </c>
       <c r="F17">
-        <v>25.66857353930645</v>
+        <v>23.07201710874557</v>
       </c>
       <c r="G17">
-        <v>35.28374849048407</v>
+        <v>30.8935999959129</v>
       </c>
       <c r="H17">
-        <v>6.434268515711268</v>
+        <v>6.334541808600473</v>
       </c>
       <c r="I17">
-        <v>3.989976963367971</v>
+        <v>3.750833851350608</v>
       </c>
       <c r="J17">
-        <v>11.97754789255884</v>
+        <v>11.07083315130576</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.48337467018622</v>
       </c>
       <c r="M17">
-        <v>13.05611972664821</v>
+        <v>12.86826769636805</v>
       </c>
       <c r="N17">
-        <v>4.522501054916379</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.920207869282788</v>
+        <v>13.32499100033949</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>4.749294915385663</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.859583729653595</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.89318777227324</v>
+        <v>14.70959682716187</v>
       </c>
       <c r="C18">
-        <v>9.254620808597851</v>
+        <v>9.583611442271419</v>
       </c>
       <c r="D18">
-        <v>6.046676779455306</v>
+        <v>6.188432535773789</v>
       </c>
       <c r="E18">
-        <v>6.71845872190411</v>
+        <v>6.645138120741246</v>
       </c>
       <c r="F18">
-        <v>27.19896067142897</v>
+        <v>24.34134708019748</v>
       </c>
       <c r="G18">
-        <v>38.0115712016819</v>
+        <v>32.99155655985628</v>
       </c>
       <c r="H18">
-        <v>5.338088886542967</v>
+        <v>5.216280948224125</v>
       </c>
       <c r="I18">
-        <v>4.004130667373011</v>
+        <v>3.76183447289459</v>
       </c>
       <c r="J18">
-        <v>12.52903548519743</v>
+        <v>11.56115348287163</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.17439567333964</v>
       </c>
       <c r="M18">
-        <v>12.75282824353314</v>
+        <v>13.54307409656653</v>
       </c>
       <c r="N18">
-        <v>4.849185918070947</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.284787793227885</v>
+        <v>13.05002621717137</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.092863840433737</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.220786257501754</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.92345175204871</v>
+        <v>14.6933517008114</v>
       </c>
       <c r="C19">
-        <v>8.866909896700712</v>
+        <v>9.164593153217499</v>
       </c>
       <c r="D19">
-        <v>5.886410994112281</v>
+        <v>5.99033432943892</v>
       </c>
       <c r="E19">
-        <v>7.089889816719015</v>
+        <v>6.874307875526477</v>
       </c>
       <c r="F19">
-        <v>29.21885562911382</v>
+        <v>25.92994728985193</v>
       </c>
       <c r="G19">
-        <v>41.58351611679959</v>
+        <v>35.74658430794286</v>
       </c>
       <c r="H19">
-        <v>4.118725338264399</v>
+        <v>3.96706012290177</v>
       </c>
       <c r="I19">
-        <v>3.982398921668689</v>
+        <v>3.746888844978461</v>
       </c>
       <c r="J19">
-        <v>13.24558999148945</v>
+        <v>12.11699777058496</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>15.03719089985689</v>
       </c>
       <c r="M19">
-        <v>12.51403399681738</v>
+        <v>14.39993766641806</v>
       </c>
       <c r="N19">
-        <v>5.409974729908095</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.814698676482561</v>
+        <v>12.84591874980718</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>5.66951078947728</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.746769669062589</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.35977843413749</v>
+        <v>15.04502452461448</v>
       </c>
       <c r="C20">
-        <v>8.582121534266658</v>
+        <v>8.77264934340521</v>
       </c>
       <c r="D20">
-        <v>5.777652413182236</v>
+        <v>5.811032229327908</v>
       </c>
       <c r="E20">
-        <v>8.285568712231527</v>
+        <v>7.829635992366711</v>
       </c>
       <c r="F20">
-        <v>32.66364886119548</v>
+        <v>28.47562663367099</v>
       </c>
       <c r="G20">
-        <v>47.59240661793535</v>
+        <v>40.43630649064131</v>
       </c>
       <c r="H20">
-        <v>2.978617364607368</v>
+        <v>2.808143917882892</v>
       </c>
       <c r="I20">
-        <v>3.832562875746072</v>
+        <v>3.625448163731283</v>
       </c>
       <c r="J20">
-        <v>14.4465957947132</v>
+        <v>12.85211584605829</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>16.35111240331534</v>
       </c>
       <c r="M20">
-        <v>12.45662679253451</v>
+        <v>15.81785108233363</v>
       </c>
       <c r="N20">
-        <v>6.492345227583147</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.77118610775329</v>
+        <v>12.84015069850687</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>6.769551698110393</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.6967828984945</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.31543319750051</v>
+        <v>15.95997157974373</v>
       </c>
       <c r="C21">
-        <v>8.852579211220387</v>
+        <v>9.079855536299878</v>
       </c>
       <c r="D21">
-        <v>5.824643026232978</v>
+        <v>5.949180059929462</v>
       </c>
       <c r="E21">
-        <v>8.671503344513184</v>
+        <v>8.136176327766353</v>
       </c>
       <c r="F21">
-        <v>34.058344388043</v>
+        <v>28.76901257630647</v>
       </c>
       <c r="G21">
-        <v>49.78799389840751</v>
+        <v>42.85971221514938</v>
       </c>
       <c r="H21">
-        <v>2.673650240415347</v>
+        <v>2.544761702717649</v>
       </c>
       <c r="I21">
-        <v>3.573732532079887</v>
+        <v>3.416066057814388</v>
       </c>
       <c r="J21">
-        <v>14.81675972621054</v>
+        <v>12.00727177332729</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>16.14534346067668</v>
       </c>
       <c r="M21">
-        <v>13.11877566993119</v>
+        <v>15.97514143038808</v>
       </c>
       <c r="N21">
-        <v>6.807179987577476</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.29574412149616</v>
+        <v>13.50499412448696</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.072847190785127</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.22080059699688</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.91389141942573</v>
+        <v>16.53566901133246</v>
       </c>
       <c r="C22">
-        <v>9.030349634576851</v>
+        <v>9.279687743163393</v>
       </c>
       <c r="D22">
-        <v>5.855499506258223</v>
+        <v>6.049109758504654</v>
       </c>
       <c r="E22">
-        <v>8.862344150307795</v>
+        <v>8.286011439101994</v>
       </c>
       <c r="F22">
-        <v>34.87777714612064</v>
+        <v>28.86721735502127</v>
       </c>
       <c r="G22">
-        <v>51.05874176098587</v>
+        <v>44.40437286139986</v>
       </c>
       <c r="H22">
-        <v>2.490187223456096</v>
+        <v>2.387777703781861</v>
       </c>
       <c r="I22">
-        <v>3.400968485343217</v>
+        <v>3.272586872241217</v>
       </c>
       <c r="J22">
-        <v>15.02965645796616</v>
+        <v>11.41310427901229</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>15.96429872836509</v>
       </c>
       <c r="M22">
-        <v>13.54132109245542</v>
+        <v>16.03229204925675</v>
       </c>
       <c r="N22">
-        <v>6.954821384908979</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.59191779834268</v>
+        <v>13.92666723929605</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.212369802499325</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.51642631535572</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.60479923979952</v>
+        <v>16.23626544457236</v>
       </c>
       <c r="C23">
-        <v>8.927458787929273</v>
+        <v>9.163455790126999</v>
       </c>
       <c r="D23">
-        <v>5.838006479074388</v>
+        <v>5.984023332534631</v>
       </c>
       <c r="E23">
-        <v>8.770298486252297</v>
+        <v>8.213417207332103</v>
       </c>
       <c r="F23">
-        <v>34.51113786299169</v>
+        <v>28.94889666638355</v>
       </c>
       <c r="G23">
-        <v>50.50551110119258</v>
+        <v>43.57185248707016</v>
       </c>
       <c r="H23">
-        <v>2.586269293304904</v>
+        <v>2.468957642506751</v>
       </c>
       <c r="I23">
-        <v>3.482118304446161</v>
+        <v>3.335291677504156</v>
       </c>
       <c r="J23">
-        <v>14.94218988692852</v>
+        <v>11.85757139505604</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>16.13181174045572</v>
       </c>
       <c r="M23">
-        <v>13.31167816110421</v>
+        <v>16.07732519983616</v>
       </c>
       <c r="N23">
-        <v>6.874356566208554</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.4357092667234</v>
+        <v>13.70044140962382</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.137543365922104</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.36014516471361</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.36744656606626</v>
+        <v>15.04646817321621</v>
       </c>
       <c r="C24">
-        <v>8.545070042787879</v>
+        <v>8.706271450977402</v>
       </c>
       <c r="D24">
-        <v>5.770816579816699</v>
+        <v>5.788904054622177</v>
       </c>
       <c r="E24">
-        <v>8.396976157033711</v>
+        <v>7.923412326892159</v>
       </c>
       <c r="F24">
-        <v>32.98445650808265</v>
+        <v>28.73997131851198</v>
       </c>
       <c r="G24">
-        <v>48.16448353743479</v>
+        <v>40.88999012907621</v>
       </c>
       <c r="H24">
-        <v>2.959479517941255</v>
+        <v>2.789611513665623</v>
       </c>
       <c r="I24">
-        <v>3.814199253151254</v>
+        <v>3.604935149522897</v>
       </c>
       <c r="J24">
-        <v>14.56743935117122</v>
+        <v>12.95444950731129</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>16.51348877421984</v>
       </c>
       <c r="M24">
-        <v>12.4171313873079</v>
+        <v>15.97524441292876</v>
       </c>
       <c r="N24">
-        <v>6.565342685094359</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.82484325263755</v>
+        <v>12.80468487192033</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>6.844667044925506</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.74971761636926</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.94498599451281</v>
+        <v>13.66476443662577</v>
       </c>
       <c r="C25">
-        <v>8.118798867737977</v>
+        <v>8.114047886619437</v>
       </c>
       <c r="D25">
-        <v>5.692145053839797</v>
+        <v>5.641022696012981</v>
       </c>
       <c r="E25">
-        <v>7.973825099705318</v>
+        <v>7.596061846907459</v>
       </c>
       <c r="F25">
-        <v>31.28741705067761</v>
+        <v>27.66148203505552</v>
       </c>
       <c r="G25">
-        <v>45.54443899116467</v>
+        <v>39.20276757142496</v>
       </c>
       <c r="H25">
-        <v>3.377642383352898</v>
+        <v>3.163359664824251</v>
       </c>
       <c r="I25">
-        <v>4.188421078547884</v>
+        <v>3.925228310480241</v>
       </c>
       <c r="J25">
-        <v>14.16172011370744</v>
+        <v>12.81479660524783</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>16.50422411583474</v>
       </c>
       <c r="M25">
-        <v>11.37965316156042</v>
+        <v>15.47081376751559</v>
       </c>
       <c r="N25">
-        <v>6.216651863919875</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.13032713506738</v>
+        <v>11.73510131879197</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.502466776140305</v>
       </c>
       <c r="Q25">
+        <v>10.05709251660837</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
